--- a/SS_dataV2.xlsx
+++ b/SS_dataV2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Pyomo model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E692397-92CE-4865-AA55-A72729C32A79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0510AF85-390C-4D77-911A-75ABF844688C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="228" windowWidth="17280" windowHeight="12204" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure j,k" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,18 @@
     <sheet name="EC j,k" sheetId="3" r:id="rId5"/>
     <sheet name="Flow0 i" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -548,7 +559,7 @@
   <dimension ref="A3:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G3" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,7 +667,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +728,7 @@
   <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,15 +770,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
-  <dimension ref="A3:Q9"/>
+  <dimension ref="A3:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -776,29 +787,28 @@
         <v>1</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9">
-        <v>2</v>
-      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10">
-        <v>3</v>
-      </c>
+      <c r="H3" s="10">
+        <v>3</v>
+      </c>
+      <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11">
+      <c r="K3" s="11">
         <v>4</v>
       </c>
+      <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12">
+      <c r="N3" s="12">
         <v>5</v>
       </c>
+      <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -811,47 +821,44 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
-        <v>3</v>
+      <c r="E4" s="3">
+        <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
       </c>
       <c r="L4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="5">
-        <v>2</v>
-      </c>
-      <c r="N4" s="5">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
       </c>
       <c r="O4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -864,16 +871,16 @@
       <c r="D5" s="1">
         <v>0.99</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="1">
@@ -894,17 +901,14 @@
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="7">
         <v>1</v>
       </c>
       <c r="P5" s="7">
         <v>1</v>
       </c>
-      <c r="Q5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -917,16 +921,16 @@
       <c r="D6" s="1">
         <v>0.62</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
+      <c r="E6" s="1">
+        <v>0.1</v>
       </c>
       <c r="F6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
       <c r="I6" s="1">
@@ -936,28 +940,25 @@
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="M6" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="O6" s="1">
         <v>0.02</v>
       </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
       <c r="P6" s="7">
         <v>1</v>
       </c>
-      <c r="Q6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -970,16 +971,16 @@
       <c r="D7" s="1">
         <v>0.21</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>1</v>
       </c>
       <c r="I7" s="1">
@@ -989,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -1000,17 +1001,14 @@
       <c r="N7" s="1">
         <v>0</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
+      <c r="O7" s="7">
+        <v>1</v>
       </c>
       <c r="P7" s="7">
         <v>1</v>
       </c>
-      <c r="Q7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1023,16 +1021,16 @@
       <c r="D8" s="1">
         <v>0.1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8" s="1">
@@ -1042,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -1053,17 +1051,14 @@
       <c r="N8" s="1">
         <v>0</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
+      <c r="O8" s="7">
+        <v>1</v>
       </c>
       <c r="P8" s="7">
         <v>1</v>
       </c>
-      <c r="Q8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1076,17 +1071,17 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
+      <c r="E9" s="1">
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1095,34 +1090,31 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L9" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
         <v>0.02</v>
       </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
       <c r="P9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1132,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A3:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1233,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8170294-30C4-4AD3-BC12-771BD8A4BF77}">
   <dimension ref="A3:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
